--- a/data/trans_camb/P16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6637422519357724</v>
+        <v>0.6637422519357723</v>
       </c>
     </row>
     <row r="5">
@@ -703,18 +703,18 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>1.752263092457209</v>
+        <v>1.561743129156532</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>4.804251690742612</v>
+        <v>4.656937297022913</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.975598773013481</v>
+        <v>0.898730187204473</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>2.387627980538572</v>
+        <v>2.538558918353059</v>
       </c>
     </row>
     <row r="7">
@@ -820,7 +820,7 @@
         <v>-0.1085421460605912</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2121258698174131</v>
+        <v>0.2121258698174132</v>
       </c>
     </row>
     <row r="11">
@@ -831,31 +831,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.0887261304740006</v>
+        <v>-0.08689870082379707</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5913695262982603</v>
+        <v>-0.6524037566591586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2581092728638549</v>
+        <v>-0.2569015473570603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.501216711508761</v>
+        <v>-1.659692285262411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.05414000359875</v>
+        <v>-1.067968901905255</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6974224574082022</v>
+        <v>-0.7504731746644036</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4012893792246168</v>
+        <v>-0.4983611534310197</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5404861875721916</v>
+        <v>-0.5526616312722017</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3365495396431722</v>
+        <v>-0.2646101393294458</v>
       </c>
     </row>
     <row r="12">
@@ -866,31 +866,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.658439977478908</v>
+        <v>1.393237463729311</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.14365653007452</v>
+        <v>1.256335127638552</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.696060982012365</v>
+        <v>0.5420111889650989</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.36613882744848</v>
+        <v>1.366253948180342</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5372726742032233</v>
+        <v>0.5218821691551134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2725394574454044</v>
+        <v>0.2682848195666834</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8259853293245257</v>
+        <v>0.9270262177230589</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>-0.3887587283172591</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7597581804525524</v>
+        <v>0.7597581804525527</v>
       </c>
     </row>
     <row r="14">
@@ -963,7 +963,7 @@
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>9.573727533067379</v>
+        <v>10.99352198953945</v>
       </c>
     </row>
     <row r="16">
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.212295348867546</v>
+        <v>-1.24981732872075</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.755506156449095</v>
+        <v>-1.745086314865216</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.188829383145727</v>
+        <v>-0.9422049492120653</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6418412484244189</v>
+        <v>-0.6147415866480456</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7752693998416313</v>
+        <v>-0.6936382091037452</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3186251265681156</v>
+        <v>-0.3395972726944839</v>
       </c>
     </row>
     <row r="18">
@@ -1048,31 +1048,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7909357189166746</v>
+        <v>0.8468154880517687</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.075984695285998</v>
+        <v>1.234559630250004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.336162232218849</v>
+        <v>1.368973493877453</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9742051384495239</v>
+        <v>1.003612787732439</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2988821946840035</v>
+        <v>0.4070844812888237</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.206247752314252</v>
+        <v>1.376203407635352</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5579986871047234</v>
+        <v>0.5565785110859167</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4200645530613611</v>
+        <v>0.3869422288311197</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9208025497014981</v>
+        <v>0.9145529330312534</v>
       </c>
     </row>
     <row r="19">
@@ -1127,22 +1127,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7248111863181881</v>
+        <v>-0.7621690061472821</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9031511608194392</v>
+        <v>-0.9290536442794776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6357554161735637</v>
+        <v>-0.5798672024321873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7350667228365659</v>
+        <v>-0.7196748294391708</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8198530546719077</v>
+        <v>-0.7801307274758008</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4316043939362487</v>
+        <v>-0.4604766633598153</v>
       </c>
     </row>
     <row r="21">
@@ -1156,22 +1156,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.876816574338637</v>
+        <v>2.081302864404281</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8356909800046909</v>
+        <v>1.095133368277502</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.099673338684677</v>
+        <v>2.506859040281573</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.146299532087272</v>
+        <v>2.022269317454352</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.867714192508487</v>
+        <v>1.448401690701708</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.272587007412093</v>
+        <v>3.482903602374208</v>
       </c>
     </row>
     <row r="22">
@@ -1192,7 +1192,7 @@
         <v>-1.392817172199168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.009101895079004912</v>
+        <v>0.009101895079004219</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.01780387074761837</v>
@@ -1210,7 +1210,7 @@
         <v>-0.6140274354559629</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.07381949644369341</v>
+        <v>0.07381949644369376</v>
       </c>
     </row>
     <row r="23">
@@ -1221,31 +1221,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.651473958985375</v>
+        <v>-2.408500672822268</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.092211071393532</v>
+        <v>-2.918640241645001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.699429498635201</v>
+        <v>-1.647181127623953</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.098138322086133</v>
+        <v>-2.041261962718852</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.907332433258198</v>
+        <v>-1.822426941299018</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.885270159359797</v>
+        <v>-1.849209173574009</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.727217590109313</v>
+        <v>-1.659346773493322</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.785029366840717</v>
+        <v>-1.821962066190126</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.174546609468449</v>
+        <v>-1.142148904306981</v>
       </c>
     </row>
     <row r="24">
@@ -1256,31 +1256,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5258658494003575</v>
+        <v>0.4888701541765145</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2467363639126726</v>
+        <v>-0.2155064633656478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.720958792013979</v>
+        <v>1.623820397869096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.644839641581026</v>
+        <v>2.025284208657045</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.317537102873903</v>
+        <v>2.143068593021549</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.657646758372978</v>
+        <v>1.726615810497288</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7992577084887225</v>
+        <v>0.7959050802638065</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6551167449691437</v>
+        <v>0.6264281167209593</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.209781651658979</v>
+        <v>1.328589204760952</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1297,7 @@
         <v>-0.7328259695567311</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.004788930822516893</v>
+        <v>0.004788930822516527</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.00670745195879324</v>
@@ -1315,7 +1315,7 @@
         <v>-0.2697598816062485</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.03243102420349715</v>
+        <v>0.03243102420349731</v>
       </c>
     </row>
     <row r="26">
@@ -1326,31 +1326,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8634302009621097</v>
+        <v>-0.8910417747459666</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.615758727041969</v>
+        <v>-0.5921540068639062</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.586225257132881</v>
+        <v>-0.5514815208781854</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.518528209146079</v>
+        <v>-0.5136207019866926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4770897865241175</v>
+        <v>-0.4494918649253853</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5829439302296369</v>
+        <v>-0.5640365005064162</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5961704396446483</v>
+        <v>-0.6051460036472872</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3880607136937639</v>
+        <v>-0.3805085335147871</v>
       </c>
     </row>
     <row r="27">
@@ -1361,31 +1361,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9039773295655382</v>
+        <v>0.6888236830570343</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2069921080010328</v>
+        <v>-0.06788197535359969</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.703976941338359</v>
+        <v>1.637707942424225</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.033812651641875</v>
+        <v>1.372201652166666</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.649733744721145</v>
+        <v>1.356431196646415</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.14235922253077</v>
+        <v>1.235529895794133</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5227005502655869</v>
+        <v>0.5775895155329378</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4517008397358797</v>
+        <v>0.4497955973501572</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7622941477006843</v>
+        <v>0.8949616827907532</v>
       </c>
     </row>
     <row r="28">
@@ -1435,31 +1435,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.985293111208517</v>
+        <v>-8.430478748755894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.861152481529004</v>
+        <v>-8.447589101594884</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.715785644685505</v>
+        <v>-8.542272217393391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.530252381067767</v>
+        <v>-3.730749516410535</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.501225502402544</v>
+        <v>-6.901607735375502</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.43761602173072</v>
+        <v>-5.846852936046637</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.981435893688658</v>
+        <v>-4.863001776729044</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.704988701447472</v>
+        <v>-6.842685390001067</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.981412168411571</v>
+        <v>-6.371147923795645</v>
       </c>
     </row>
     <row r="30">
@@ -1470,31 +1470,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.440349966086086</v>
+        <v>-1.667100870984111</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.217304509399753</v>
+        <v>-2.289328872977772</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.32189944361159</v>
+        <v>-2.698945713190749</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.511022020332281</v>
+        <v>3.817631880471835</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3653773819266936</v>
+        <v>0.1906293100073556</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9903865948321622</v>
+        <v>0.9264231142122088</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5174887743900157</v>
+        <v>0.1989456587379169</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.109753960203693</v>
+        <v>-2.104601474938381</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.421674471650797</v>
+        <v>-1.704641199720623</v>
       </c>
     </row>
     <row r="31">
@@ -1540,31 +1540,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8251084133521278</v>
+        <v>-0.8523798363305858</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8765101123240098</v>
+        <v>-0.874616890187851</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8367740085628619</v>
+        <v>-0.8395737217622488</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3359826781347797</v>
+        <v>-0.3421969011151664</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6080814943031407</v>
+        <v>-0.63889649578928</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4877074178676136</v>
+        <v>-0.498870854633329</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5015229373939071</v>
+        <v>-0.501279305305992</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6905643323797985</v>
+        <v>-0.6910734170069213</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5989368503202949</v>
+        <v>-0.6202686169203998</v>
       </c>
     </row>
     <row r="33">
@@ -1575,31 +1575,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2418070377044082</v>
+        <v>-0.2788600114140647</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3139778166413152</v>
+        <v>-0.3472539946129481</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3954497998747214</v>
+        <v>-0.4203850762787255</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6514692616858077</v>
+        <v>0.5402086375202344</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05317666993054131</v>
+        <v>0.06182086849783765</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.152582688600145</v>
+        <v>0.147520122235154</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07765853287748295</v>
+        <v>0.03478100489882295</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2957802276320914</v>
+        <v>-0.2842415186730158</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2133679520479892</v>
+        <v>-0.2489014540124736</v>
       </c>
     </row>
     <row r="34">
@@ -1629,7 +1629,7 @@
         <v>-6.227337572182426</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.245278789685381</v>
+        <v>-2.245278789685385</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.7078563350525438</v>
@@ -1638,7 +1638,7 @@
         <v>-4.806920245977062</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.719143684093877</v>
+        <v>-2.719143684093876</v>
       </c>
     </row>
     <row r="35">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.359744121921088</v>
+        <v>-5.087071054573743</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.359247057328152</v>
+        <v>-6.483406754728705</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.979822646641781</v>
+        <v>-5.993093452495887</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.068192504688971</v>
+        <v>-5.497717750720786</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-10.99560970467884</v>
+        <v>-11.43559758251706</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.908986595509319</v>
+        <v>-6.641645202374678</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.083644287305924</v>
+        <v>-4.331439186358385</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.41921929098997</v>
+        <v>-7.957018124349398</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.421686125268925</v>
+        <v>-5.506333417898846</v>
       </c>
     </row>
     <row r="36">
@@ -1684,31 +1684,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.876771073686055</v>
+        <v>2.539593339766504</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.02240022958400752</v>
+        <v>0.0476702513479452</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.1480324069241676</v>
+        <v>-0.03614774861504119</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.634059412643425</v>
+        <v>5.974882855942833</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.721455980032267</v>
+        <v>-1.629139787298459</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.154871517828112</v>
+        <v>1.911250726101196</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.543991482669083</v>
+        <v>2.450910075670559</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.94908465985151</v>
+        <v>-1.900473388038075</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.03941825099928048</v>
+        <v>-0.01300627148459734</v>
       </c>
     </row>
     <row r="37">
@@ -1734,7 +1734,7 @@
         <v>-0.4018315225863841</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1448811445071538</v>
+        <v>-0.144881144507154</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.06364898909679124</v>
@@ -1743,7 +1743,7 @@
         <v>-0.4322284045146366</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.244499820275894</v>
+        <v>-0.2444998202758939</v>
       </c>
     </row>
     <row r="38">
@@ -1754,31 +1754,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6534044416723802</v>
+        <v>-0.6353227879395573</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7771905690761458</v>
+        <v>-0.7901411227738785</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7326312403650698</v>
+        <v>-0.7295828463263048</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2834591880756322</v>
+        <v>-0.2909734310051557</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6061021799374422</v>
+        <v>-0.6179259244318691</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3679844081228807</v>
+        <v>-0.3619817859582189</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3265835754964287</v>
+        <v>-0.3391170205794825</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5996544163432874</v>
+        <v>-0.6089041532899673</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4128698454101026</v>
+        <v>-0.4332502670315843</v>
       </c>
     </row>
     <row r="39">
@@ -1789,31 +1789,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4802944502360176</v>
+        <v>0.6222800216105124</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1009522396895382</v>
+        <v>0.09156490656441724</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.01281451144136635</v>
+        <v>0.02160968015265223</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4381066543528193</v>
+        <v>0.443740614327002</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1255881516764836</v>
+        <v>-0.1248216236495556</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1688099044266219</v>
+        <v>0.1523182076820049</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2750506420385502</v>
+        <v>0.2622959269265401</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2052285453893863</v>
+        <v>-0.2020428896630367</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.007376584100514199</v>
+        <v>-0.000413106127299816</v>
       </c>
     </row>
     <row r="40">
@@ -1843,7 +1843,7 @@
         <v>-5.427423471699725</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-3.038654319513054</v>
+        <v>-3.038654319513057</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.292329572473092</v>
@@ -1852,7 +1852,7 @@
         <v>-7.37054312182764</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-6.299461631830888</v>
+        <v>-6.299461631830887</v>
       </c>
     </row>
     <row r="41">
@@ -1863,31 +1863,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-11.11810979533986</v>
+        <v>-10.96888217121414</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-16.74539887445203</v>
+        <v>-16.87023846057433</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.02222584064436</v>
+        <v>-17.01583906412649</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.429572767141052</v>
+        <v>-1.092413472007171</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.20486477409515</v>
+        <v>-10.93485764235642</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.913347328072813</v>
+        <v>-8.227511279119744</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.602750857390648</v>
+        <v>-3.119542271076392</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-11.30275168053318</v>
+        <v>-11.45725448826684</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-10.10322605654631</v>
+        <v>-10.37356881080569</v>
       </c>
     </row>
     <row r="42">
@@ -1898,31 +1898,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.835435369986492</v>
+        <v>2.686808165340295</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.747540273505451</v>
+        <v>-4.895469249395188</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.644741520653964</v>
+        <v>-6.14053345430515</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.54172512901971</v>
+        <v>11.54144396295591</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.2933947968511932</v>
+        <v>-0.1999413043288341</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.486270213404091</v>
+        <v>1.769499164923788</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.382457991758256</v>
+        <v>5.826068658897394</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.183272640790205</v>
+        <v>-3.156841721436734</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.690552994269006</v>
+        <v>-2.58202786153901</v>
       </c>
     </row>
     <row r="43">
@@ -1939,7 +1939,7 @@
         <v>-0.5775714940769643</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.6216389177774605</v>
+        <v>-0.6216389177774606</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2838718749665274</v>
@@ -1948,7 +1948,7 @@
         <v>-0.3120685603684138</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1747179824629989</v>
+        <v>-0.174717982462999</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.07329512621089147</v>
@@ -1957,7 +1957,7 @@
         <v>-0.4180240860103225</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3572771568494979</v>
+        <v>-0.3572771568494978</v>
       </c>
     </row>
     <row r="44">
@@ -1968,31 +1968,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5306432033022485</v>
+        <v>-0.5153262037861007</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7465752534413906</v>
+        <v>-0.7493485723413508</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7591367190710745</v>
+        <v>-0.7610746225543642</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.08458018273218101</v>
+        <v>-0.06086530804318897</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5479210516135742</v>
+        <v>-0.5338419924400865</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.406845340749968</v>
+        <v>-0.3888360777772696</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.183903055512992</v>
+        <v>-0.1542291761998547</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5670173404020361</v>
+        <v>-0.570792154574396</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5009397025991169</v>
+        <v>-0.4942031511730421</v>
       </c>
     </row>
     <row r="45">
@@ -2003,31 +2003,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1881656389305155</v>
+        <v>0.2054532496128308</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2967320563834641</v>
+        <v>-0.3181814973695994</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3872290256129424</v>
+        <v>-0.4148552704641456</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7919232750588302</v>
+        <v>0.7992847956389604</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.01321534388360965</v>
+        <v>-0.007741789414628436</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1066116254755929</v>
+        <v>0.1387136041687856</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3504637274415143</v>
+        <v>0.3831057158355801</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2003740008715813</v>
+        <v>-0.2032682242311446</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1899132466063682</v>
+        <v>-0.156382535593205</v>
       </c>
     </row>
     <row r="46">
@@ -2066,7 +2066,7 @@
         <v>-1.419033442530246</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.2979168207970666</v>
+        <v>-0.2979168207970673</v>
       </c>
     </row>
     <row r="47">
@@ -2077,31 +2077,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.645109682726414</v>
+        <v>-1.597817308131853</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.331501662752117</v>
+        <v>-2.249261770489147</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.800013266150791</v>
+        <v>-1.788689365598611</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.4109677610249828</v>
+        <v>-0.3287985899713057</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.384588824412565</v>
+        <v>-2.29339208126057</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.5756019321535997</v>
+        <v>-0.5677824100930146</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6925605118486795</v>
+        <v>-0.6543071943733034</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.055183787126698</v>
+        <v>-2.037008578230307</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.9415890404937153</v>
+        <v>-0.9614277904195392</v>
       </c>
     </row>
     <row r="48">
@@ -2112,31 +2112,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.05633075839015642</v>
+        <v>-0.08488161611159985</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.9164441853216196</v>
+        <v>-0.882587889773072</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.3742026186441672</v>
+        <v>-0.3812819242050615</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.835832037242296</v>
+        <v>1.866670311511046</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.3299238365996345</v>
+        <v>-0.2678111412150579</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.319670806410333</v>
+        <v>1.37186043244451</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.6632730136828353</v>
+        <v>0.7299726664694614</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7876472494364724</v>
+        <v>-0.8655124863040086</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.2593290783993613</v>
+        <v>0.2810391166619803</v>
       </c>
     </row>
     <row r="49">
@@ -2171,7 +2171,7 @@
         <v>-0.3539134922652143</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.07430183059310988</v>
+        <v>-0.07430183059311005</v>
       </c>
     </row>
     <row r="50">
@@ -2182,31 +2182,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4868309707064807</v>
+        <v>-0.469951743476135</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6897933406095341</v>
+        <v>-0.688286958680832</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5266535671779222</v>
+        <v>-0.536936224382616</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.07646058351713153</v>
+        <v>-0.05986232162606449</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4204396215064795</v>
+        <v>-0.4041914619883706</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1075541041784987</v>
+        <v>-0.09977554717945158</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.161115397958124</v>
+        <v>-0.1540338577253034</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4700426388813683</v>
+        <v>-0.4743496918035885</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2153462147692817</v>
+        <v>-0.2180345894581076</v>
       </c>
     </row>
     <row r="51">
@@ -2217,31 +2217,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.02139132506212554</v>
+        <v>-0.02597125215463272</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3590024914509384</v>
+        <v>-0.3593761992680608</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1442595661063765</v>
+        <v>-0.1541191360657518</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3974890151246002</v>
+        <v>0.4133473237341314</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.07460135226731252</v>
+        <v>-0.05449450053105412</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.299322455834423</v>
+        <v>0.3031105252636122</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1745995881892064</v>
+        <v>0.2024739962570112</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2153698233492628</v>
+        <v>-0.2257793718019556</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.07051611879801695</v>
+        <v>0.07672826864599644</v>
       </c>
     </row>
     <row r="52">
